--- a/frontend/src/assets/brand.xlsx
+++ b/frontend/src/assets/brand.xlsx
@@ -48,7 +48,15 @@
     <t>Heinz</t>
   </si>
   <si>
-    <t>https://image.similarpng.com/very-thumbnail/2020/06/Logo-heinz-vector-PNG.png</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://logowik.com/content/uploads/images/heinz-18695886.jpg</t>
+    </r>
   </si>
   <si>
     <t>Hellmann's</t>
@@ -94,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -114,6 +122,12 @@
       <u val="single"/>
       <sz val="12"/>
       <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="13"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -258,6 +272,7 @@
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff0563c1"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1425,6 +1440,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" location="" tooltip="" display="https://www.tuco.ac.uk/sites/default/files/styles/logo_aside_image/public/2022-03/NESTLE_LOGO.png?itok=Xsb1wg95"/>
+    <hyperlink ref="B5" r:id="rId2" location="" tooltip="" display="https://logowik.com/content/uploads/images/heinz-18695886.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
